--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>415499.3602899729</v>
+        <v>419711.3180613432</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35057.68703636205</v>
+        <v>35751.2890639652</v>
       </c>
       <c r="C6" t="n">
-        <v>35057.68703636199</v>
+        <v>35751.2890639652</v>
       </c>
       <c r="D6" t="n">
-        <v>35057.68703636205</v>
+        <v>35751.28906396509</v>
       </c>
       <c r="E6" t="n">
-        <v>-58586.31563370517</v>
+        <v>-58175.28351414545</v>
       </c>
       <c r="F6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="G6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="H6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="I6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="J6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="K6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="L6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="M6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="N6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="O6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
       <c r="P6" t="n">
-        <v>74513.6843662949</v>
+        <v>74924.71648585456</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419711.3180613432</v>
+        <v>433437.676198762</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660752</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660748</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948226</v>
+        <v>148616.7125948227</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35751.2890639652</v>
+        <v>35751.28906396541</v>
       </c>
       <c r="C6" t="n">
-        <v>35751.2890639652</v>
+        <v>35751.2890639653</v>
       </c>
       <c r="D6" t="n">
-        <v>35751.28906396509</v>
+        <v>35751.2890639653</v>
       </c>
       <c r="E6" t="n">
-        <v>-58175.28351414545</v>
+        <v>-58175.28351414543</v>
       </c>
       <c r="F6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="G6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="H6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="I6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="J6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="K6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="L6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="M6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="N6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="O6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
       <c r="P6" t="n">
-        <v>74924.71648585456</v>
+        <v>74924.71648585463</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433437.676198762</v>
+        <v>349652.2744371367</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
         <v>148616.7125948227</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35751.28906396541</v>
+        <v>35707.15328528417</v>
       </c>
       <c r="C6" t="n">
-        <v>35751.2890639653</v>
+        <v>35707.15328528394</v>
       </c>
       <c r="D6" t="n">
-        <v>35751.2890639653</v>
+        <v>35707.15328528405</v>
       </c>
       <c r="E6" t="n">
-        <v>-58175.28351414543</v>
+        <v>-72985.30035325934</v>
       </c>
       <c r="F6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="G6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="H6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="I6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="J6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="K6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="L6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="M6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="N6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="O6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
       <c r="P6" t="n">
-        <v>74924.71648585463</v>
+        <v>60114.69964674073</v>
       </c>
     </row>
   </sheetData>
